--- a/b_list_3.xlsx
+++ b/b_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5850,11 +5850,21 @@
       <c r="C208" t="n">
         <v>106784</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>752152</v>
+      </c>
+      <c r="E208" t="n">
+        <v>15302459</v>
+      </c>
+      <c r="F208" t="n">
+        <v>215491548000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>4384154503500</v>
+      </c>
+      <c r="H208" t="n">
+        <v>4.920000076293945</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -5871,6 +5881,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>286000</v>
+      </c>
+      <c r="C210" t="n">
+        <v>67432</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5883,7 +5909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11299,11 +11325,21 @@
       <c r="C208" t="n">
         <v>342264</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>827566</v>
+      </c>
+      <c r="E208" t="n">
+        <v>58492759</v>
+      </c>
+      <c r="F208" t="n">
+        <v>99473433200</v>
+      </c>
+      <c r="G208" t="n">
+        <v>7030829631800</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1.409999966621399</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11320,6 +11356,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>120100</v>
+      </c>
+      <c r="C210" t="n">
+        <v>269712</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11332,7 +11384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16748,11 +16800,21 @@
       <c r="C208" t="n">
         <v>157614</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>661698</v>
+      </c>
+      <c r="E208" t="n">
+        <v>23605077</v>
+      </c>
+      <c r="F208" t="n">
+        <v>50222878200</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1791625344300</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2.799999952316284</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -16769,6 +16831,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>74500</v>
+      </c>
+      <c r="C210" t="n">
+        <v>180663</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16781,7 +16859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22197,11 +22275,21 @@
       <c r="C208" t="n">
         <v>93416</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>475748</v>
+      </c>
+      <c r="E208" t="n">
+        <v>11349509</v>
+      </c>
+      <c r="F208" t="n">
+        <v>96101096000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2292600818000</v>
+      </c>
+      <c r="H208" t="n">
+        <v>4.190000057220459</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -22218,6 +22306,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>195600</v>
+      </c>
+      <c r="C210" t="n">
+        <v>79405</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22230,7 +22334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27646,11 +27750,21 @@
       <c r="C208" t="n">
         <v>504439</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>89318</v>
+      </c>
+      <c r="E208" t="n">
+        <v>37430655</v>
+      </c>
+      <c r="F208" t="n">
+        <v>24339155000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>10199853487500</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.239999994635582</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -27667,6 +27781,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>261500</v>
+      </c>
+      <c r="C210" t="n">
+        <v>571733</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27679,7 +27809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30573,11 +30703,21 @@
       <c r="C111" t="n">
         <v>241980</v>
       </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
+      <c r="D111" t="n">
+        <v>38899</v>
+      </c>
+      <c r="E111" t="n">
+        <v>12343915</v>
+      </c>
+      <c r="F111" t="n">
+        <v>6161601600</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1955276136000</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.3199999928474426</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -30595,6 +30735,22 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B113" t="n">
+        <v>160900</v>
+      </c>
+      <c r="C113" t="n">
+        <v>192200</v>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_3.xlsx
+++ b/b_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5876,11 +5876,21 @@
       <c r="C209" t="n">
         <v>115547</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>764115</v>
+      </c>
+      <c r="E209" t="n">
+        <v>15302459</v>
+      </c>
+      <c r="F209" t="n">
+        <v>222357465000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>4453015569000</v>
+      </c>
+      <c r="H209" t="n">
+        <v>4.989999771118164</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -5897,6 +5907,22 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>286000</v>
+      </c>
+      <c r="C211" t="n">
+        <v>49641</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5909,7 +5935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11351,11 +11377,21 @@
       <c r="C209" t="n">
         <v>217799</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>803792</v>
+      </c>
+      <c r="E209" t="n">
+        <v>58492759</v>
+      </c>
+      <c r="F209" t="n">
+        <v>96937315200</v>
+      </c>
+      <c r="G209" t="n">
+        <v>7054226735400</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1.370000004768372</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11372,6 +11408,22 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>118600</v>
+      </c>
+      <c r="C211" t="n">
+        <v>199021</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11384,7 +11436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16826,11 +16878,21 @@
       <c r="C209" t="n">
         <v>158077</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>637946</v>
+      </c>
+      <c r="E209" t="n">
+        <v>23605077</v>
+      </c>
+      <c r="F209" t="n">
+        <v>48037333800</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1777462298100</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2.700000047683716</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -16847,6 +16909,22 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>72800</v>
+      </c>
+      <c r="C211" t="n">
+        <v>201195</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16859,7 +16937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22301,11 +22379,21 @@
       <c r="C209" t="n">
         <v>75652</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>474582</v>
+      </c>
+      <c r="E209" t="n">
+        <v>11349509</v>
+      </c>
+      <c r="F209" t="n">
+        <v>94631650800</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2263092094600</v>
+      </c>
+      <c r="H209" t="n">
+        <v>4.179999828338623</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -22315,13 +22403,29 @@
         <v>195600</v>
       </c>
       <c r="C210" t="n">
-        <v>79405</v>
+        <v>79434</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>191600</v>
+      </c>
+      <c r="C211" t="n">
+        <v>85698</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22334,7 +22438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27776,11 +27880,21 @@
       <c r="C209" t="n">
         <v>500326</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>95034</v>
+      </c>
+      <c r="E209" t="n">
+        <v>37430655</v>
+      </c>
+      <c r="F209" t="n">
+        <v>26229384000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>10330860780000</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -27797,6 +27911,22 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>234000</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2241648</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27809,7 +27939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30729,11 +30859,21 @@
       <c r="C112" t="n">
         <v>280930</v>
       </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
+      <c r="D112" t="n">
+        <v>39623</v>
+      </c>
+      <c r="E112" t="n">
+        <v>12343915</v>
+      </c>
+      <c r="F112" t="n">
+        <v>6537795000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2036745975000</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.3199999928474426</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -30743,7 +30883,7 @@
         <v>160900</v>
       </c>
       <c r="C113" t="n">
-        <v>192200</v>
+        <v>192678</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
@@ -30751,6 +30891,22 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B114" t="n">
+        <v>127900</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1023196</v>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_3.xlsx
+++ b/b_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5902,11 +5902,21 @@
       <c r="C210" t="n">
         <v>67432</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>780540</v>
+      </c>
+      <c r="E210" t="n">
+        <v>15302459</v>
+      </c>
+      <c r="F210" t="n">
+        <v>223234440000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>4376503274000</v>
+      </c>
+      <c r="H210" t="n">
+        <v>5.099999904632568</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -5918,11 +5928,157 @@
       <c r="C211" t="n">
         <v>49641</v>
       </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+      <c r="D211" t="n">
+        <v>784682</v>
+      </c>
+      <c r="E211" t="n">
+        <v>15302459</v>
+      </c>
+      <c r="F211" t="n">
+        <v>224419052000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>4376503274000</v>
+      </c>
+      <c r="H211" t="n">
+        <v>5.130000114440918</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>289000</v>
+      </c>
+      <c r="C212" t="n">
+        <v>78161</v>
+      </c>
+      <c r="D212" t="n">
+        <v>778365</v>
+      </c>
+      <c r="E212" t="n">
+        <v>15302459</v>
+      </c>
+      <c r="F212" t="n">
+        <v>224947485000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>4422410651000</v>
+      </c>
+      <c r="H212" t="n">
+        <v>5.090000152587891</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>288500</v>
+      </c>
+      <c r="C213" t="n">
+        <v>44780</v>
+      </c>
+      <c r="D213" t="n">
+        <v>786346</v>
+      </c>
+      <c r="E213" t="n">
+        <v>15302459</v>
+      </c>
+      <c r="F213" t="n">
+        <v>226860821000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>4414759421500</v>
+      </c>
+      <c r="H213" t="n">
+        <v>5.139999866485596</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>291000</v>
+      </c>
+      <c r="C214" t="n">
+        <v>83795</v>
+      </c>
+      <c r="D214" t="n">
+        <v>769888</v>
+      </c>
+      <c r="E214" t="n">
+        <v>15302459</v>
+      </c>
+      <c r="F214" t="n">
+        <v>224037408000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>4453015569000</v>
+      </c>
+      <c r="H214" t="n">
+        <v>5.03000020980835</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>298500</v>
+      </c>
+      <c r="C215" t="n">
+        <v>121564</v>
+      </c>
+      <c r="D215" t="n">
+        <v>709982</v>
+      </c>
+      <c r="E215" t="n">
+        <v>15302459</v>
+      </c>
+      <c r="F215" t="n">
+        <v>211929627000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>4567784011500</v>
+      </c>
+      <c r="H215" t="n">
+        <v>4.639999866485596</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>301000</v>
+      </c>
+      <c r="C216" t="n">
+        <v>76998</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>294000</v>
+      </c>
+      <c r="C217" t="n">
+        <v>53460</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5935,7 +6091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11403,11 +11559,21 @@
       <c r="C210" t="n">
         <v>269712</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>792762</v>
+      </c>
+      <c r="E210" t="n">
+        <v>58492759</v>
+      </c>
+      <c r="F210" t="n">
+        <v>95210716200</v>
+      </c>
+      <c r="G210" t="n">
+        <v>7024980355900</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1.360000014305115</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11419,11 +11585,157 @@
       <c r="C211" t="n">
         <v>199021</v>
       </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+      <c r="D211" t="n">
+        <v>824440</v>
+      </c>
+      <c r="E211" t="n">
+        <v>58492759</v>
+      </c>
+      <c r="F211" t="n">
+        <v>97778584000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>6937241217400</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1.409999966621399</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>126500</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1604910</v>
+      </c>
+      <c r="D212" t="n">
+        <v>599752</v>
+      </c>
+      <c r="E212" t="n">
+        <v>58492759</v>
+      </c>
+      <c r="F212" t="n">
+        <v>75868628000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>7399334013500</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1.029999971389771</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>126100</v>
+      </c>
+      <c r="C213" t="n">
+        <v>299775</v>
+      </c>
+      <c r="D213" t="n">
+        <v>602095</v>
+      </c>
+      <c r="E213" t="n">
+        <v>58492759</v>
+      </c>
+      <c r="F213" t="n">
+        <v>75924179500</v>
+      </c>
+      <c r="G213" t="n">
+        <v>7375936909900</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1.029999971389771</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>123900</v>
+      </c>
+      <c r="C214" t="n">
+        <v>291886</v>
+      </c>
+      <c r="D214" t="n">
+        <v>602865</v>
+      </c>
+      <c r="E214" t="n">
+        <v>58492759</v>
+      </c>
+      <c r="F214" t="n">
+        <v>74694973500</v>
+      </c>
+      <c r="G214" t="n">
+        <v>7247252840100</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1.029999971389771</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>126300</v>
+      </c>
+      <c r="C215" t="n">
+        <v>199969</v>
+      </c>
+      <c r="D215" t="n">
+        <v>556494</v>
+      </c>
+      <c r="E215" t="n">
+        <v>58492759</v>
+      </c>
+      <c r="F215" t="n">
+        <v>70285192200</v>
+      </c>
+      <c r="G215" t="n">
+        <v>7387635461700</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.949999988079071</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>127800</v>
+      </c>
+      <c r="C216" t="n">
+        <v>271643</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>127400</v>
+      </c>
+      <c r="C217" t="n">
+        <v>333741</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11436,7 +11748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16904,11 +17216,21 @@
       <c r="C210" t="n">
         <v>180663</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>602780</v>
+      </c>
+      <c r="E210" t="n">
+        <v>23605077</v>
+      </c>
+      <c r="F210" t="n">
+        <v>44907110000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1758578236500</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2.549999952316284</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -16920,11 +17242,157 @@
       <c r="C211" t="n">
         <v>201195</v>
       </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+      <c r="D211" t="n">
+        <v>617784</v>
+      </c>
+      <c r="E211" t="n">
+        <v>23605077</v>
+      </c>
+      <c r="F211" t="n">
+        <v>44974675200</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1718449605600</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2.619999885559082</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>72100</v>
+      </c>
+      <c r="C212" t="n">
+        <v>390579</v>
+      </c>
+      <c r="D212" t="n">
+        <v>628127</v>
+      </c>
+      <c r="E212" t="n">
+        <v>23605077</v>
+      </c>
+      <c r="F212" t="n">
+        <v>45287956700</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1701926051700</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2.660000085830688</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>66000</v>
+      </c>
+      <c r="C213" t="n">
+        <v>645826</v>
+      </c>
+      <c r="D213" t="n">
+        <v>670939</v>
+      </c>
+      <c r="E213" t="n">
+        <v>23605077</v>
+      </c>
+      <c r="F213" t="n">
+        <v>44281974000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1557935082000</v>
+      </c>
+      <c r="H213" t="n">
+        <v>2.839999914169312</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>63600</v>
+      </c>
+      <c r="C214" t="n">
+        <v>699012</v>
+      </c>
+      <c r="D214" t="n">
+        <v>634230</v>
+      </c>
+      <c r="E214" t="n">
+        <v>23605077</v>
+      </c>
+      <c r="F214" t="n">
+        <v>40337028000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1501282897200</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2.690000057220459</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>64800</v>
+      </c>
+      <c r="C215" t="n">
+        <v>244709</v>
+      </c>
+      <c r="D215" t="n">
+        <v>581644</v>
+      </c>
+      <c r="E215" t="n">
+        <v>23605077</v>
+      </c>
+      <c r="F215" t="n">
+        <v>37690531200</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1529608989600</v>
+      </c>
+      <c r="H215" t="n">
+        <v>2.460000038146973</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>65400</v>
+      </c>
+      <c r="C216" t="n">
+        <v>213672</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>64200</v>
+      </c>
+      <c r="C217" t="n">
+        <v>185901</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16937,7 +17405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22405,11 +22873,21 @@
       <c r="C210" t="n">
         <v>79434</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>471295</v>
+      </c>
+      <c r="E210" t="n">
+        <v>11349509</v>
+      </c>
+      <c r="F210" t="n">
+        <v>92185302000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2219963960400</v>
+      </c>
+      <c r="H210" t="n">
+        <v>4.150000095367432</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -22421,11 +22899,157 @@
       <c r="C211" t="n">
         <v>85698</v>
       </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+      <c r="D211" t="n">
+        <v>464293</v>
+      </c>
+      <c r="E211" t="n">
+        <v>11349509</v>
+      </c>
+      <c r="F211" t="n">
+        <v>88958538800</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2174565924400</v>
+      </c>
+      <c r="H211" t="n">
+        <v>4.090000152587891</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>193600</v>
+      </c>
+      <c r="C212" t="n">
+        <v>106665</v>
+      </c>
+      <c r="D212" t="n">
+        <v>462283</v>
+      </c>
+      <c r="E212" t="n">
+        <v>11349509</v>
+      </c>
+      <c r="F212" t="n">
+        <v>89497988800</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2197264942400</v>
+      </c>
+      <c r="H212" t="n">
+        <v>4.070000171661377</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>189500</v>
+      </c>
+      <c r="C213" t="n">
+        <v>120630</v>
+      </c>
+      <c r="D213" t="n">
+        <v>455981</v>
+      </c>
+      <c r="E213" t="n">
+        <v>11349509</v>
+      </c>
+      <c r="F213" t="n">
+        <v>86408399500</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2150731955500</v>
+      </c>
+      <c r="H213" t="n">
+        <v>4.019999980926514</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>155700</v>
+      </c>
+      <c r="C214" t="n">
+        <v>651102</v>
+      </c>
+      <c r="D214" t="n">
+        <v>469098</v>
+      </c>
+      <c r="E214" t="n">
+        <v>11349509</v>
+      </c>
+      <c r="F214" t="n">
+        <v>73038558600</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1767118551300</v>
+      </c>
+      <c r="H214" t="n">
+        <v>4.130000114440918</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>158000</v>
+      </c>
+      <c r="C215" t="n">
+        <v>213802</v>
+      </c>
+      <c r="D215" t="n">
+        <v>461827</v>
+      </c>
+      <c r="E215" t="n">
+        <v>11349509</v>
+      </c>
+      <c r="F215" t="n">
+        <v>72968666000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1793222422000</v>
+      </c>
+      <c r="H215" t="n">
+        <v>4.070000171661377</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>160800</v>
+      </c>
+      <c r="C216" t="n">
+        <v>144321</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>156200</v>
+      </c>
+      <c r="C217" t="n">
+        <v>99824</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22438,7 +23062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27906,11 +28530,21 @@
       <c r="C210" t="n">
         <v>571733</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>102162</v>
+      </c>
+      <c r="E210" t="n">
+        <v>37430655</v>
+      </c>
+      <c r="F210" t="n">
+        <v>26715363000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>9788116282500</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.2700000107288361</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -27922,11 +28556,157 @@
       <c r="C211" t="n">
         <v>2241648</v>
       </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+      <c r="D211" t="n">
+        <v>139511</v>
+      </c>
+      <c r="E211" t="n">
+        <v>37430655</v>
+      </c>
+      <c r="F211" t="n">
+        <v>32645574000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>8758773270000</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.3700000047683716</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>234000</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1031039</v>
+      </c>
+      <c r="D212" t="n">
+        <v>145613</v>
+      </c>
+      <c r="E212" t="n">
+        <v>37430655</v>
+      </c>
+      <c r="F212" t="n">
+        <v>34073442000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>8758773270000</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.3899999856948853</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>220500</v>
+      </c>
+      <c r="C213" t="n">
+        <v>919703</v>
+      </c>
+      <c r="D213" t="n">
+        <v>160840</v>
+      </c>
+      <c r="E213" t="n">
+        <v>37430655</v>
+      </c>
+      <c r="F213" t="n">
+        <v>35465220000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>8253459427500</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.4300000071525574</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>212500</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1269534</v>
+      </c>
+      <c r="D214" t="n">
+        <v>145220</v>
+      </c>
+      <c r="E214" t="n">
+        <v>37430655</v>
+      </c>
+      <c r="F214" t="n">
+        <v>30859250000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>7954014187500</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.3899999856948853</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>211000</v>
+      </c>
+      <c r="C215" t="n">
+        <v>580602</v>
+      </c>
+      <c r="D215" t="n">
+        <v>112050</v>
+      </c>
+      <c r="E215" t="n">
+        <v>37430655</v>
+      </c>
+      <c r="F215" t="n">
+        <v>23642550000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>7897868205000</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.300000011920929</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>213500</v>
+      </c>
+      <c r="C216" t="n">
+        <v>473309</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>219500</v>
+      </c>
+      <c r="C217" t="n">
+        <v>703586</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27939,7 +28719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30885,11 +31665,21 @@
       <c r="C113" t="n">
         <v>192678</v>
       </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
+      <c r="D113" t="n">
+        <v>38472</v>
+      </c>
+      <c r="E113" t="n">
+        <v>12343915</v>
+      </c>
+      <c r="F113" t="n">
+        <v>6190144800</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1986135923500</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.3100000023841858</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -30901,11 +31691,157 @@
       <c r="C114" t="n">
         <v>1023196</v>
       </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
+      <c r="D114" t="n">
+        <v>118867</v>
+      </c>
+      <c r="E114" t="n">
+        <v>12343915</v>
+      </c>
+      <c r="F114" t="n">
+        <v>15203089300</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1578786728500</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.9599999785423279</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B115" t="n">
+        <v>121900</v>
+      </c>
+      <c r="C115" t="n">
+        <v>257902</v>
+      </c>
+      <c r="D115" t="n">
+        <v>108419</v>
+      </c>
+      <c r="E115" t="n">
+        <v>12343915</v>
+      </c>
+      <c r="F115" t="n">
+        <v>13216276100</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1504723238500</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.8799999952316284</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B116" t="n">
+        <v>121200</v>
+      </c>
+      <c r="C116" t="n">
+        <v>248680</v>
+      </c>
+      <c r="D116" t="n">
+        <v>127352</v>
+      </c>
+      <c r="E116" t="n">
+        <v>12343915</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15435062400</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1496082498000</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.029999971389771</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B117" t="n">
+        <v>122100</v>
+      </c>
+      <c r="C117" t="n">
+        <v>216968</v>
+      </c>
+      <c r="D117" t="n">
+        <v>136888</v>
+      </c>
+      <c r="E117" t="n">
+        <v>12343915</v>
+      </c>
+      <c r="F117" t="n">
+        <v>16714024800</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1507192021500</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.110000014305115</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B118" t="n">
+        <v>126300</v>
+      </c>
+      <c r="C118" t="n">
+        <v>198182</v>
+      </c>
+      <c r="D118" t="n">
+        <v>147169</v>
+      </c>
+      <c r="E118" t="n">
+        <v>12343915</v>
+      </c>
+      <c r="F118" t="n">
+        <v>18587444700</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1559036464500</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.190000057220459</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B119" t="n">
+        <v>127800</v>
+      </c>
+      <c r="C119" t="n">
+        <v>91769</v>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B120" t="n">
+        <v>127900</v>
+      </c>
+      <c r="C120" t="n">
+        <v>106081</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/b_list_3.xlsx
+++ b/b_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6058,11 +6058,21 @@
       <c r="C216" t="n">
         <v>76998</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>712349</v>
+      </c>
+      <c r="E216" t="n">
+        <v>15302459</v>
+      </c>
+      <c r="F216" t="n">
+        <v>214417049000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>4606040159000</v>
+      </c>
+      <c r="H216" t="n">
+        <v>4.659999847412109</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -6079,6 +6089,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>289000</v>
+      </c>
+      <c r="C218" t="n">
+        <v>45238</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6091,7 +6117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11715,11 +11741,21 @@
       <c r="C216" t="n">
         <v>271643</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>569932</v>
+      </c>
+      <c r="E216" t="n">
+        <v>58492759</v>
+      </c>
+      <c r="F216" t="n">
+        <v>72837309600</v>
+      </c>
+      <c r="G216" t="n">
+        <v>7475374600200</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.9700000286102295</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11736,6 +11772,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>127200</v>
+      </c>
+      <c r="C218" t="n">
+        <v>196660</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11748,7 +11800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17372,11 +17424,21 @@
       <c r="C216" t="n">
         <v>213672</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>542630</v>
+      </c>
+      <c r="E216" t="n">
+        <v>23605077</v>
+      </c>
+      <c r="F216" t="n">
+        <v>35488002000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1543772035800</v>
+      </c>
+      <c r="H216" t="n">
+        <v>2.299999952316284</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -17393,6 +17455,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>65400</v>
+      </c>
+      <c r="C218" t="n">
+        <v>151336</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17405,7 +17483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23029,11 +23107,21 @@
       <c r="C216" t="n">
         <v>144321</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>465449</v>
+      </c>
+      <c r="E216" t="n">
+        <v>11349509</v>
+      </c>
+      <c r="F216" t="n">
+        <v>74844199200</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1825001047200</v>
+      </c>
+      <c r="H216" t="n">
+        <v>4.099999904632568</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -23050,6 +23138,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>158800</v>
+      </c>
+      <c r="C218" t="n">
+        <v>50111</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23062,7 +23166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28686,11 +28790,21 @@
       <c r="C216" t="n">
         <v>473309</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>76174</v>
+      </c>
+      <c r="E216" t="n">
+        <v>37430655</v>
+      </c>
+      <c r="F216" t="n">
+        <v>16263149000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>7991444842500</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.2000000029802322</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -28707,6 +28821,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>218500</v>
+      </c>
+      <c r="C218" t="n">
+        <v>359136</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -28719,7 +28849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31821,11 +31951,21 @@
       <c r="C119" t="n">
         <v>91769</v>
       </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
+      <c r="D119" t="n">
+        <v>157714</v>
+      </c>
+      <c r="E119" t="n">
+        <v>12343915</v>
+      </c>
+      <c r="F119" t="n">
+        <v>20155849200</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1577552337000</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.279999971389771</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -31843,6 +31983,22 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
     </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B121" t="n">
+        <v>130000</v>
+      </c>
+      <c r="C121" t="n">
+        <v>90680</v>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_3.xlsx
+++ b/b_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6136,11 +6136,21 @@
       <c r="C219" t="n">
         <v>45238</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>733018</v>
+      </c>
+      <c r="E219" t="n">
+        <v>15302459</v>
+      </c>
+      <c r="F219" t="n">
+        <v>211842202000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>4422410651000</v>
+      </c>
+      <c r="H219" t="n">
+        <v>4.789999961853027</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -6157,6 +6167,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>286000</v>
+      </c>
+      <c r="C221" t="n">
+        <v>37460</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6169,7 +6195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11871,11 +11897,21 @@
       <c r="C219" t="n">
         <v>196660</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>543225</v>
+      </c>
+      <c r="E219" t="n">
+        <v>58492759</v>
+      </c>
+      <c r="F219" t="n">
+        <v>69098220000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>7440278944800</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.9300000071525574</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11892,6 +11928,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>127700</v>
+      </c>
+      <c r="C221" t="n">
+        <v>335387</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11904,7 +11956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17606,11 +17658,21 @@
       <c r="C219" t="n">
         <v>151336</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>511578</v>
+      </c>
+      <c r="E219" t="n">
+        <v>23605077</v>
+      </c>
+      <c r="F219" t="n">
+        <v>33457201200</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1543772035800</v>
+      </c>
+      <c r="H219" t="n">
+        <v>2.170000076293945</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -17627,6 +17689,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>64800</v>
+      </c>
+      <c r="C221" t="n">
+        <v>162886</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17639,7 +17717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23341,11 +23419,21 @@
       <c r="C219" t="n">
         <v>50111</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>433686</v>
+      </c>
+      <c r="E219" t="n">
+        <v>11349509</v>
+      </c>
+      <c r="F219" t="n">
+        <v>68869336800</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1802302029200</v>
+      </c>
+      <c r="H219" t="n">
+        <v>3.819999933242798</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -23362,6 +23450,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>162100</v>
+      </c>
+      <c r="C221" t="n">
+        <v>172408</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23374,7 +23478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29076,11 +29180,21 @@
       <c r="C219" t="n">
         <v>359136</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>65792</v>
+      </c>
+      <c r="E219" t="n">
+        <v>37430655</v>
+      </c>
+      <c r="F219" t="n">
+        <v>14375552000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>8178598117500</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.1800000071525574</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -29097,6 +29211,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>224500</v>
+      </c>
+      <c r="C221" t="n">
+        <v>503086</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -29109,7 +29239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32263,11 +32393,21 @@
       <c r="C121" t="n">
         <v>90680</v>
       </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
+      <c r="D121" t="n">
+        <v>152102</v>
+      </c>
+      <c r="E121" t="n">
+        <v>12343915</v>
+      </c>
+      <c r="F121" t="n">
+        <v>19773260000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1604708950000</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.230000019073486</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -32285,6 +32425,22 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
     </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B123" t="n">
+        <v>133300</v>
+      </c>
+      <c r="C123" t="n">
+        <v>126759</v>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_3.xlsx
+++ b/b_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6318,11 +6318,21 @@
       <c r="C226" t="n">
         <v>56782</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>749414</v>
+      </c>
+      <c r="E226" t="n">
+        <v>15302459</v>
+      </c>
+      <c r="F226" t="n">
+        <v>211709455000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>4322944667500</v>
+      </c>
+      <c r="H226" t="n">
+        <v>4.900000095367432</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -6339,6 +6349,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>279500</v>
+      </c>
+      <c r="C228" t="n">
+        <v>111056</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6351,7 +6377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12235,11 +12261,21 @@
       <c r="C226" t="n">
         <v>249048</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>511552</v>
+      </c>
+      <c r="E226" t="n">
+        <v>58492759</v>
+      </c>
+      <c r="F226" t="n">
+        <v>64660172800</v>
+      </c>
+      <c r="G226" t="n">
+        <v>7393484737600</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.8700000047683716</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12256,6 +12292,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>125100</v>
+      </c>
+      <c r="C228" t="n">
+        <v>198214</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12268,7 +12320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18152,11 +18204,21 @@
       <c r="C226" t="n">
         <v>151464</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>402096</v>
+      </c>
+      <c r="E226" t="n">
+        <v>23605077</v>
+      </c>
+      <c r="F226" t="n">
+        <v>26256868800</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1541411528100</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1.700000047683716</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -18173,6 +18235,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>65800</v>
+      </c>
+      <c r="C228" t="n">
+        <v>133096</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18185,7 +18263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24069,11 +24147,21 @@
       <c r="C226" t="n">
         <v>57156</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>474518</v>
+      </c>
+      <c r="E226" t="n">
+        <v>11349509</v>
+      </c>
+      <c r="F226" t="n">
+        <v>76492301600</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1829540850800</v>
+      </c>
+      <c r="H226" t="n">
+        <v>4.179999828338623</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -24090,6 +24178,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>161500</v>
+      </c>
+      <c r="C228" t="n">
+        <v>74188</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24102,7 +24206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29986,11 +30090,21 @@
       <c r="C226" t="n">
         <v>474423</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>104563</v>
+      </c>
+      <c r="E226" t="n">
+        <v>37430655</v>
+      </c>
+      <c r="F226" t="n">
+        <v>26193031500</v>
+      </c>
+      <c r="G226" t="n">
+        <v>9376379077500</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.2800000011920929</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -30007,6 +30121,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>266000</v>
+      </c>
+      <c r="C228" t="n">
+        <v>560962</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30019,7 +30149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33329,11 +33459,21 @@
       <c r="C127" t="n">
         <v>99082</v>
       </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
+      <c r="D127" t="n">
+        <v>197015</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12343915</v>
+      </c>
+      <c r="F127" t="n">
+        <v>25749860500</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1613349690500</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1.600000023841858</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -33351,6 +33491,22 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
     </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B129" t="n">
+        <v>129300</v>
+      </c>
+      <c r="C129" t="n">
+        <v>86759</v>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_3.xlsx
+++ b/b_list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6344,11 +6344,21 @@
       <c r="C227" t="n">
         <v>33598</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>754710</v>
+      </c>
+      <c r="E227" t="n">
+        <v>15302459</v>
+      </c>
+      <c r="F227" t="n">
+        <v>215469705000</v>
+      </c>
+      <c r="G227" t="n">
+        <v>4368852044500</v>
+      </c>
+      <c r="H227" t="n">
+        <v>4.929999828338623</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -6365,6 +6375,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>276500</v>
+      </c>
+      <c r="C229" t="n">
+        <v>84600</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6377,7 +6403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12287,11 +12313,21 @@
       <c r="C227" t="n">
         <v>175099</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>523910</v>
+      </c>
+      <c r="E227" t="n">
+        <v>58492759</v>
+      </c>
+      <c r="F227" t="n">
+        <v>66798525000</v>
+      </c>
+      <c r="G227" t="n">
+        <v>7457826772500</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.8999999761581421</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12308,6 +12344,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>124300</v>
+      </c>
+      <c r="C229" t="n">
+        <v>145968</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12320,7 +12372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18230,11 +18282,21 @@
       <c r="C227" t="n">
         <v>112323</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>381564</v>
+      </c>
+      <c r="E227" t="n">
+        <v>23605077</v>
+      </c>
+      <c r="F227" t="n">
+        <v>25106911200</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1553214066600</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1.620000004768372</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -18251,6 +18313,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>66700</v>
+      </c>
+      <c r="C229" t="n">
+        <v>73439</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18263,7 +18341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24173,11 +24251,21 @@
       <c r="C227" t="n">
         <v>38652</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>472448</v>
+      </c>
+      <c r="E227" t="n">
+        <v>11349509</v>
+      </c>
+      <c r="F227" t="n">
+        <v>77056268800</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1851104917900</v>
+      </c>
+      <c r="H227" t="n">
+        <v>4.159999847412109</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -24194,6 +24282,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>166000</v>
+      </c>
+      <c r="C229" t="n">
+        <v>47654</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24206,7 +24310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30116,11 +30220,21 @@
       <c r="C227" t="n">
         <v>421780</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>89989</v>
+      </c>
+      <c r="E227" t="n">
+        <v>37430655</v>
+      </c>
+      <c r="F227" t="n">
+        <v>22497250000</v>
+      </c>
+      <c r="G227" t="n">
+        <v>9357663750000</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.239999994635582</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -30137,6 +30251,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>255500</v>
+      </c>
+      <c r="C229" t="n">
+        <v>384689</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30149,7 +30279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33485,11 +33615,21 @@
       <c r="C128" t="n">
         <v>51905</v>
       </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
+      <c r="D128" t="n">
+        <v>196107</v>
+      </c>
+      <c r="E128" t="n">
+        <v>12343915</v>
+      </c>
+      <c r="F128" t="n">
+        <v>25337024400</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1594833818000</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1.590000033378601</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -33507,6 +33647,22 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
     </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B130" t="n">
+        <v>135000</v>
+      </c>
+      <c r="C130" t="n">
+        <v>162633</v>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
